--- a/Design/DataTable/MonsterSpeciality.xlsx
+++ b/Design/DataTable/MonsterSpeciality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63568D87-FDA8-488F-891C-8F8AB1C7391A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A762955-142F-43D7-BE5D-7170FE6ABC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15ACDB1F-C6AC-449D-954E-0F89D135D19B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,11 +146,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterStat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +546,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -580,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -597,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
